--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.576068838102572</v>
+        <v>19.57606882210149</v>
       </c>
       <c r="C2">
-        <v>28.964743731505678</v>
+        <v>28.964743701256282</v>
       </c>
       <c r="D2">
-        <v>9.9792198257564735</v>
+        <v>9.9792197380898244</v>
       </c>
       <c r="E2">
-        <v>33.22184912374729</v>
+        <v>33.221848823835614</v>
       </c>
       <c r="F2">
-        <v>-15.469979849943911</v>
+        <v>-15.469979876864102</v>
       </c>
       <c r="G2">
-        <v>25.456079917105825</v>
+        <v>25.45607989077584</v>
       </c>
       <c r="H2">
-        <v>26.603158757959363</v>
+        <v>26.603158732552913</v>
       </c>
       <c r="I2">
-        <v>22.224324398909971</v>
+        <v>22.224324379100096</v>
       </c>
       <c r="J2">
-        <v>29.889631050131243</v>
+        <v>29.889631041036864</v>
       </c>
       <c r="K2">
-        <v>42.349925275419537</v>
+        <v>42.349925249148214</v>
       </c>
       <c r="L2">
-        <v>33.720493778237937</v>
+        <v>33.720493736729395</v>
       </c>
       <c r="M2">
-        <v>24.362651647669395</v>
+        <v>24.36265159199786</v>
       </c>
       <c r="N2">
-        <v>37.492689333340422</v>
+        <v>37.492689234642398</v>
       </c>
       <c r="O2">
-        <v>15.770560526463669</v>
+        <v>15.770560471060094</v>
       </c>
       <c r="P2">
-        <v>21.798566530448682</v>
+        <v>21.798566485583649</v>
       </c>
       <c r="Q2">
-        <v>40.192322409260669</v>
+        <v>40.192322376935522</v>
       </c>
       <c r="R2">
-        <v>20.49303687066498</v>
+        <v>20.49303681545058</v>
       </c>
       <c r="S2">
-        <v>20.683760928500078</v>
+        <v>20.683760911030788</v>
       </c>
       <c r="T2">
-        <v>38.392485370761733</v>
+        <v>38.392485316084276</v>
       </c>
       <c r="U2">
-        <v>32.367058080152589</v>
+        <v>32.367058064313341</v>
       </c>
       <c r="V2">
-        <v>34.099943940161438</v>
+        <v>34.099943897908588</v>
       </c>
       <c r="W2">
-        <v>14.403152266228574</v>
+        <v>14.403152195220855</v>
       </c>
       <c r="X2">
-        <v>35.776040113841304</v>
+        <v>35.776040118696244</v>
       </c>
       <c r="Y2">
-        <v>31.411599175057404</v>
+        <v>31.411599159974571</v>
       </c>
       <c r="Z2">
-        <v>26.39595397656629</v>
+        <v>26.395953953891791</v>
       </c>
       <c r="AA2">
-        <v>37.116549280145193</v>
+        <v>37.116549316221551</v>
       </c>
       <c r="AB2">
-        <v>34.284082420458162</v>
+        <v>34.284082405566892</v>
       </c>
       <c r="AC2">
-        <v>23.491377333694771</v>
+        <v>23.491377287711288</v>
       </c>
       <c r="AD2">
-        <v>33.466337470252711</v>
+        <v>33.466337466028563</v>
       </c>
       <c r="AE2">
-        <v>37.81740518753287</v>
+        <v>37.817405208512866</v>
       </c>
       <c r="AF2">
-        <v>30.942276344563197</v>
+        <v>30.942276319429538</v>
       </c>
       <c r="AG2">
-        <v>28.693361804204642</v>
+        <v>28.693361650731333</v>
       </c>
       <c r="AH2">
-        <v>27.146964182515831</v>
+        <v>27.146964165735881</v>
       </c>
       <c r="AI2">
-        <v>7.2656699305869665</v>
+        <v>7.2656699421668804</v>
       </c>
       <c r="AJ2">
-        <v>25.848174454737205</v>
+        <v>25.848174382958803</v>
       </c>
       <c r="AK2">
-        <v>32.701497439182845</v>
+        <v>32.701497448662849</v>
       </c>
       <c r="AL2">
-        <v>46.031550409433635</v>
+        <v>46.031550354123624</v>
       </c>
       <c r="AM2">
-        <v>30.262972584053927</v>
+        <v>30.262972515426583</v>
       </c>
       <c r="AN2">
-        <v>28.479226213563379</v>
+        <v>28.479226120375358</v>
       </c>
       <c r="AO2">
-        <v>39.749585473407336</v>
+        <v>39.749585410427954</v>
       </c>
       <c r="AP2">
-        <v>29.010593538103194</v>
+        <v>29.010593496172362</v>
       </c>
       <c r="AQ2">
-        <v>30.80100698668889</v>
+        <v>30.801006908779186</v>
       </c>
       <c r="AR2">
-        <v>31.441700225039483</v>
+        <v>31.441700223534497</v>
       </c>
       <c r="AS2">
-        <v>41.111191376142983</v>
+        <v>41.111191322955563</v>
       </c>
       <c r="AT2">
-        <v>33.402553209160772</v>
+        <v>33.402553155604778</v>
       </c>
       <c r="AU2">
-        <v>29.260723644870723</v>
+        <v>29.260723597161871</v>
       </c>
       <c r="AV2">
-        <v>25.92765265634722</v>
+        <v>25.9276526096113</v>
       </c>
       <c r="AW2">
-        <v>31.581686629106258</v>
+        <v>31.581686583190702</v>
       </c>
       <c r="AX2">
-        <v>39.661208223219035</v>
+        <v>39.661208180753675</v>
       </c>
       <c r="AY2">
-        <v>32.87762432898873</v>
+        <v>32.877624300775523</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.006954086017117</v>
+        <v>21.006954092832643</v>
       </c>
       <c r="C3">
-        <v>28.424247218932635</v>
+        <v>28.424247219831102</v>
       </c>
       <c r="D3">
-        <v>35.012871750522351</v>
+        <v>35.012871695838243</v>
       </c>
       <c r="E3">
-        <v>42.041997706410996</v>
+        <v>42.041997700468244</v>
       </c>
       <c r="F3">
-        <v>6.7285302781204734</v>
+        <v>6.7285302756975796</v>
       </c>
       <c r="G3">
-        <v>28.680921721224053</v>
+        <v>28.680921725328034</v>
       </c>
       <c r="H3">
-        <v>28.782985623595209</v>
+        <v>28.782985546120926</v>
       </c>
       <c r="I3">
-        <v>27.40386747288494</v>
+        <v>27.403867489551999</v>
       </c>
       <c r="J3">
-        <v>33.646871872163445</v>
+        <v>33.646871859820578</v>
       </c>
       <c r="K3">
-        <v>2.3986068073680826</v>
+        <v>2.3986067691916446</v>
       </c>
       <c r="L3">
-        <v>36.776469455674203</v>
+        <v>36.77646941197213</v>
       </c>
       <c r="M3">
-        <v>29.616870447018073</v>
+        <v>29.616604719416159</v>
       </c>
       <c r="N3">
-        <v>30.964940889971786</v>
+        <v>30.964940853434314</v>
       </c>
       <c r="O3">
-        <v>13.102229759887621</v>
+        <v>13.102229730301303</v>
       </c>
       <c r="P3">
-        <v>65.38737028556244</v>
+        <v>65.387370238195388</v>
       </c>
       <c r="Q3">
-        <v>26.246221056820104</v>
+        <v>26.246220976761322</v>
       </c>
       <c r="R3">
-        <v>22.446573593380322</v>
+        <v>22.446573552732161</v>
       </c>
       <c r="S3">
-        <v>16.587720941354291</v>
+        <v>16.587720922171457</v>
       </c>
       <c r="T3">
-        <v>20.223169234825491</v>
+        <v>20.223169204459055</v>
       </c>
       <c r="U3">
-        <v>29.488164728661843</v>
+        <v>29.488164701200276</v>
       </c>
       <c r="V3">
-        <v>34.7857190358867</v>
+        <v>34.785719010975697</v>
       </c>
       <c r="W3">
-        <v>24.456530211779295</v>
+        <v>24.456530165393929</v>
       </c>
       <c r="X3">
-        <v>13.329601239144552</v>
+        <v>13.329601213055412</v>
       </c>
       <c r="Y3">
-        <v>15.40220155783652</v>
+        <v>15.402201509612127</v>
       </c>
       <c r="Z3">
-        <v>27.113395816735249</v>
+        <v>27.113395784141801</v>
       </c>
       <c r="AA3">
-        <v>40.222549637809948</v>
+        <v>40.222549631698485</v>
       </c>
       <c r="AB3">
-        <v>30.48151088098308</v>
+        <v>30.481510905709456</v>
       </c>
       <c r="AC3">
-        <v>39.29899068361371</v>
+        <v>39.298990648788077</v>
       </c>
       <c r="AD3">
-        <v>46.618720065696976</v>
+        <v>46.618720038044643</v>
       </c>
       <c r="AE3">
-        <v>33.608010543786378</v>
+        <v>33.608010573446762</v>
       </c>
       <c r="AF3">
-        <v>34.568547859066143</v>
+        <v>34.568547845566172</v>
       </c>
       <c r="AG3">
-        <v>27.762212726008897</v>
+        <v>27.762212690028832</v>
       </c>
       <c r="AH3">
-        <v>32.135231868174458</v>
+        <v>32.135231857185261</v>
       </c>
       <c r="AI3">
-        <v>36.757970080876134</v>
+        <v>36.757970025695727</v>
       </c>
       <c r="AJ3">
-        <v>44.175047207604393</v>
+        <v>44.175047182292246</v>
       </c>
       <c r="AK3">
-        <v>37.135935716849531</v>
+        <v>37.135935677805435</v>
       </c>
       <c r="AL3">
-        <v>39.73285046232229</v>
+        <v>39.732850396021149</v>
       </c>
       <c r="AM3">
-        <v>29.502760070249735</v>
+        <v>29.502759980320775</v>
       </c>
       <c r="AN3">
-        <v>19.578309835317242</v>
+        <v>19.578309789659698</v>
       </c>
       <c r="AO3">
-        <v>19.699896138965812</v>
+        <v>19.699896095969819</v>
       </c>
       <c r="AP3">
-        <v>38.777661741217457</v>
+        <v>38.777661724512086</v>
       </c>
       <c r="AQ3">
-        <v>33.014630686160103</v>
+        <v>33.014630626971211</v>
       </c>
       <c r="AR3">
-        <v>38.768059057101141</v>
+        <v>38.768059033562508</v>
       </c>
       <c r="AS3">
-        <v>31.327747597341954</v>
+        <v>31.327747580726566</v>
       </c>
       <c r="AT3">
-        <v>27.799216001986593</v>
+        <v>27.799215956041309</v>
       </c>
       <c r="AU3">
-        <v>38.379131474855797</v>
+        <v>38.379131450567456</v>
       </c>
       <c r="AV3">
-        <v>36.110195004057175</v>
+        <v>36.110194895845211</v>
       </c>
       <c r="AW3">
-        <v>37.019698013765435</v>
+        <v>37.019697983831975</v>
       </c>
       <c r="AX3">
-        <v>66.214035296770021</v>
+        <v>66.214035293333495</v>
       </c>
       <c r="AY3">
-        <v>47.03915621623355</v>
+        <v>47.039156178860253</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>19.57606882210149</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>28.964743701256282</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.9792197380898244</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.221848823835614</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.469979876864102</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>25.45607989077584</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>26.603158732552913</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>22.224324379100096</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>29.889631041036864</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>42.349925249148214</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>33.720493736729395</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>24.36265159199786</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>37.492689234642398</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.770560471060094</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>21.798566485583649</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>40.192322376935522</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>20.49303681545058</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.683760911030788</v>
+        <v>20.68372758103078</v>
       </c>
       <c r="T2">
-        <v>38.392485316084276</v>
+        <v>38.392451986084211</v>
       </c>
       <c r="U2">
-        <v>32.367058064313341</v>
+        <v>32.367024734313333</v>
       </c>
       <c r="V2">
-        <v>34.099943897908588</v>
+        <v>34.099910567908637</v>
       </c>
       <c r="W2">
-        <v>14.403152195220855</v>
+        <v>14.403118865220904</v>
       </c>
       <c r="X2">
-        <v>35.776040118696244</v>
+        <v>35.776073448696252</v>
       </c>
       <c r="Y2">
-        <v>31.411599159974571</v>
+        <v>31.411632489974579</v>
       </c>
       <c r="Z2">
-        <v>26.395953953891791</v>
+        <v>26.395987283891799</v>
       </c>
       <c r="AA2">
-        <v>37.116549316221551</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>34.284082405566892</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>23.491377287711288</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>33.466337466028563</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>37.817405208512866</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>30.942276319429538</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>28.693361650731333</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>27.146964165735881</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>7.2656699421668804</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>25.848174382958803</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>32.701497448662849</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>46.031550354123624</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>30.262972515426583</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>28.479226120375358</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>39.749585410427954</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>29.010593496172362</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>30.801006908779186</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>31.441700223534497</v>
+        <v>31.441666893534489</v>
       </c>
       <c r="AS2">
-        <v>41.111191322955563</v>
+        <v>41.111157992955555</v>
       </c>
       <c r="AT2">
         <v>33.402553155604778</v>
       </c>
       <c r="AU2">
-        <v>29.260723597161871</v>
+        <v>29.260690267161863</v>
       </c>
       <c r="AV2">
         <v>25.9276526096113</v>
       </c>
       <c r="AW2">
-        <v>31.581686583190702</v>
+        <v>31.58171991319071</v>
       </c>
       <c r="AX2">
-        <v>39.661208180753675</v>
+        <v>39.661241510753655</v>
       </c>
       <c r="AY2">
         <v>32.877624300775523</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.006954092832643</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>28.424247219831102</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>35.012871695838243</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>42.041997700468244</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.7285302756975796</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>28.680921725328034</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>28.782985546120926</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>27.403867489551999</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>33.646871859820578</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.3986067691916446</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>36.77646941197213</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>29.616604719416159</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>30.964940853434314</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.102229730301303</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>65.387370238195388</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>26.246220976761322</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>22.446573552732161</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>16.587720922171457</v>
       </c>
       <c r="T3">
-        <v>20.223169204459055</v>
+        <v>20.22313587445899</v>
       </c>
       <c r="U3">
-        <v>29.488164701200276</v>
+        <v>29.488131371200268</v>
       </c>
       <c r="V3">
-        <v>34.785719010975697</v>
+        <v>34.785685680975689</v>
       </c>
       <c r="W3">
-        <v>24.456530165393929</v>
+        <v>24.456496835393921</v>
       </c>
       <c r="X3">
-        <v>13.329601213055412</v>
+        <v>13.329567883055404</v>
       </c>
       <c r="Y3">
-        <v>15.402201509612127</v>
+        <v>15.402234839612106</v>
       </c>
       <c r="Z3">
-        <v>27.113395784141801</v>
+        <v>27.113429114141809</v>
       </c>
       <c r="AA3">
-        <v>40.222549631698485</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>30.481510905709456</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>39.298990648788077</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>46.618720038044643</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>33.608010573446762</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>34.568547845566172</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>27.762212690028832</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>32.135231857185261</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>36.757970025695727</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>44.175047182292246</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>37.135935677805435</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>39.732850396021149</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>29.502759980320775</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>19.578309789659698</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>19.699896095969819</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>38.777661724512086</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>33.014630626971211</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>38.768059033562508</v>
+        <v>38.768025703562557</v>
       </c>
       <c r="AS3">
         <v>31.327747580726566</v>
       </c>
       <c r="AT3">
-        <v>27.799215956041309</v>
+        <v>27.799182626041301</v>
       </c>
       <c r="AU3">
-        <v>38.379131450567456</v>
+        <v>38.379098120567448</v>
       </c>
       <c r="AV3">
-        <v>36.110194895845211</v>
+        <v>36.110228225845276</v>
       </c>
       <c r="AW3">
-        <v>37.019697983831975</v>
+        <v>37.019664653831967</v>
       </c>
       <c r="AX3">
-        <v>66.214035293333495</v>
+        <v>66.214068623333475</v>
       </c>
       <c r="AY3">
         <v>47.039156178860253</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.576035508102564</v>
+        <v>15.770593801060102</v>
       </c>
       <c r="C2">
-        <v>30.501443731505674</v>
+        <v>20.493003485450572</v>
       </c>
       <c r="D2">
-        <v>9.9792198257564735</v>
+        <v>28.479259450375366</v>
       </c>
       <c r="E2">
-        <v>40.535215793747312</v>
+        <v>30.801006908779186</v>
       </c>
       <c r="F2">
         <v>-15.470013179943919</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.006954086017117</v>
+        <v>13.102229730301303</v>
       </c>
       <c r="C3">
-        <v>35.064213888932613</v>
+        <v>22.44654022273221</v>
       </c>
       <c r="D3">
-        <v>35.012838420522371</v>
+        <v>19.578343119659678</v>
       </c>
       <c r="E3">
-        <v>42.041964376410988</v>
+        <v>33.33869612715057</v>
       </c>
       <c r="F3">
         <v>6.7285636081204814</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.576035508102564</v>
+        <v>1.352655904642404</v>
       </c>
       <c r="C2">
-        <v>30.501443731505674</v>
+        <v>15.770593801060102</v>
       </c>
       <c r="D2">
-        <v>9.9792198257564735</v>
+        <v>20.959639185426568</v>
       </c>
       <c r="E2">
-        <v>40.535215793747312</v>
+        <v>28.479259450375366</v>
       </c>
       <c r="F2">
         <v>-15.470013179943919</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.006954086017117</v>
+        <v>-19.535092476565751</v>
       </c>
       <c r="C3">
-        <v>35.064213888932613</v>
+        <v>13.102229730301303</v>
       </c>
       <c r="D3">
-        <v>35.012838420522371</v>
+        <v>43.009426650320847</v>
       </c>
       <c r="E3">
-        <v>42.041964376410988</v>
+        <v>19.578343119659678</v>
       </c>
       <c r="F3">
         <v>6.7285636081204814</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>19.576035492101482</v>
+      </c>
+      <c r="C2">
+        <v>30.501443701256278</v>
+      </c>
+      <c r="D2">
+        <v>9.9792197380898244</v>
+      </c>
+      <c r="E2">
+        <v>40.535215493835636</v>
+      </c>
+      <c r="F2">
+        <v>-15.47001320686411</v>
+      </c>
+      <c r="G2">
+        <v>25.45604656077586</v>
+      </c>
+      <c r="H2">
+        <v>26.603192062552921</v>
+      </c>
+      <c r="I2">
+        <v>22.224291049100088</v>
+      </c>
+      <c r="J2">
+        <v>29.889664371036815</v>
+      </c>
+      <c r="K2">
+        <v>42.349958579148279</v>
+      </c>
+      <c r="L2">
+        <v>33.72046040672933</v>
+      </c>
+      <c r="M2">
+        <v>24.362684921997811</v>
+      </c>
+      <c r="N2">
         <v>1.352655904642404</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>15.770593801060102</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>21.798566485583649</v>
+      </c>
+      <c r="Q2">
+        <v>71.848955706935499</v>
+      </c>
+      <c r="R2">
+        <v>20.493003485450572</v>
+      </c>
+      <c r="S2">
+        <v>20.68372758103078</v>
+      </c>
+      <c r="T2">
+        <v>38.392451986084211</v>
+      </c>
+      <c r="U2">
+        <v>32.367024734313333</v>
+      </c>
+      <c r="V2">
+        <v>34.099910567908637</v>
+      </c>
+      <c r="W2">
+        <v>14.403118865220904</v>
+      </c>
+      <c r="X2">
+        <v>35.776073448696252</v>
+      </c>
+      <c r="Y2">
+        <v>31.411632489974579</v>
+      </c>
+      <c r="Z2">
+        <v>26.395987283891799</v>
+      </c>
+      <c r="AA2">
+        <v>37.116582646221559</v>
+      </c>
+      <c r="AB2">
+        <v>5.2007490755669323</v>
+      </c>
+      <c r="AC2">
+        <v>23.491410617711267</v>
+      </c>
+      <c r="AD2">
+        <v>25.919670796028583</v>
+      </c>
+      <c r="AE2">
+        <v>37.817405208512866</v>
+      </c>
+      <c r="AF2">
+        <v>30.942242989429587</v>
+      </c>
+      <c r="AG2">
+        <v>28.693361650731333</v>
+      </c>
+      <c r="AH2">
+        <v>27.14693083573593</v>
+      </c>
+      <c r="AI2">
+        <v>7.2656366121668725</v>
+      </c>
+      <c r="AJ2">
+        <v>25.848207712958754</v>
+      </c>
+      <c r="AK2">
+        <v>32.701530778662857</v>
+      </c>
+      <c r="AL2">
+        <v>46.031550354123624</v>
+      </c>
+      <c r="AM2">
         <v>20.959639185426568</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>28.479259450375366</v>
       </c>
-      <c r="F2">
-        <v>-15.470013179943919</v>
-      </c>
-      <c r="G2">
-        <v>25.456046587105845</v>
-      </c>
-      <c r="H2">
-        <v>26.603192087959371</v>
-      </c>
-      <c r="I2">
-        <v>22.224291068909963</v>
-      </c>
-      <c r="J2">
-        <v>29.889664380131194</v>
-      </c>
-      <c r="K2">
-        <v>42.349958605419602</v>
-      </c>
-      <c r="L2">
-        <v>33.720460448237873</v>
-      </c>
-      <c r="M2">
-        <v>24.362684977669346</v>
-      </c>
-      <c r="N2">
-        <v>1.352656003340428</v>
-      </c>
-      <c r="O2">
-        <v>15.770593856463677</v>
-      </c>
-      <c r="P2">
-        <v>21.798566530448682</v>
-      </c>
-      <c r="Q2">
-        <v>71.848955739260646</v>
-      </c>
-      <c r="R2">
-        <v>20.493003540664972</v>
-      </c>
-      <c r="S2">
-        <v>20.68372759850007</v>
-      </c>
-      <c r="T2">
-        <v>38.392452040761668</v>
-      </c>
-      <c r="U2">
-        <v>32.367024750152581</v>
-      </c>
-      <c r="V2">
-        <v>34.099910610161487</v>
-      </c>
-      <c r="W2">
-        <v>14.403118936228623</v>
-      </c>
-      <c r="X2">
-        <v>35.776073443841312</v>
-      </c>
-      <c r="Y2">
-        <v>31.411632505057412</v>
-      </c>
-      <c r="Z2">
-        <v>26.395987306566298</v>
-      </c>
-      <c r="AA2">
-        <v>37.116582610145201</v>
-      </c>
-      <c r="AB2">
-        <v>5.2007490904582028</v>
-      </c>
-      <c r="AC2">
-        <v>23.491410663694751</v>
-      </c>
-      <c r="AD2">
-        <v>25.919670800252732</v>
-      </c>
-      <c r="AE2">
-        <v>37.81740518753287</v>
-      </c>
-      <c r="AF2">
-        <v>30.942243014563246</v>
-      </c>
-      <c r="AG2">
-        <v>28.693361804204642</v>
-      </c>
-      <c r="AH2">
-        <v>27.146930852515879</v>
-      </c>
-      <c r="AI2">
-        <v>7.2656366005869586</v>
-      </c>
-      <c r="AJ2">
-        <v>25.848207784737156</v>
-      </c>
-      <c r="AK2">
-        <v>32.701530769182853</v>
-      </c>
-      <c r="AL2">
-        <v>46.031550409433635</v>
-      </c>
-      <c r="AM2">
-        <v>20.959639254053911</v>
-      </c>
-      <c r="AN2">
-        <v>28.479259543563387</v>
-      </c>
       <c r="AO2">
-        <v>39.749585473407336</v>
+        <v>39.749585410427954</v>
       </c>
       <c r="AP2">
-        <v>29.434943312513496</v>
+        <v>29.434943251070649</v>
       </c>
       <c r="AQ2">
-        <v>30.80100698668889</v>
+        <v>30.801006908779186</v>
       </c>
       <c r="AR2">
-        <v>31.441666895039475</v>
+        <v>31.441666893534489</v>
       </c>
       <c r="AS2">
-        <v>41.111158046142975</v>
+        <v>41.111157992955555</v>
       </c>
       <c r="AT2">
-        <v>33.402553209160772</v>
+        <v>33.402553155604778</v>
       </c>
       <c r="AU2">
-        <v>29.260690314870715</v>
+        <v>29.260690267161863</v>
       </c>
       <c r="AV2">
-        <v>25.92765265634722</v>
+        <v>25.9276526096113</v>
       </c>
       <c r="AW2">
-        <v>31.581719959106266</v>
+        <v>31.58171991319071</v>
       </c>
       <c r="AX2">
-        <v>39.661241553219014</v>
+        <v>39.661241510753655</v>
       </c>
       <c r="AY2">
-        <v>32.87762432898873</v>
+        <v>32.877624300775523</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>21.006954092832643</v>
+      </c>
+      <c r="C3">
+        <v>35.06421388983108</v>
+      </c>
+      <c r="D3">
+        <v>35.012838365838263</v>
+      </c>
+      <c r="E3">
+        <v>42.041964370468236</v>
+      </c>
+      <c r="F3">
+        <v>6.7285636056975875</v>
+      </c>
+      <c r="G3">
+        <v>28.680888395328026</v>
+      </c>
+      <c r="H3">
+        <v>28.783018876120877</v>
+      </c>
+      <c r="I3">
+        <v>27.40390081955195</v>
+      </c>
+      <c r="J3">
+        <v>35.890171859820555</v>
+      </c>
+      <c r="K3">
+        <v>2.3986067691916446</v>
+      </c>
+      <c r="L3">
+        <v>36.776502741972195</v>
+      </c>
+      <c r="M3">
+        <v>29.616604719416159</v>
+      </c>
+      <c r="N3">
         <v>-19.535092476565751</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>13.102229730301303</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>65.38733690819538</v>
+      </c>
+      <c r="Q3">
+        <v>26.246254306761273</v>
+      </c>
+      <c r="R3">
+        <v>22.44654022273221</v>
+      </c>
+      <c r="S3">
+        <v>16.587720922171457</v>
+      </c>
+      <c r="T3">
+        <v>20.22313587445899</v>
+      </c>
+      <c r="U3">
+        <v>29.488131371200268</v>
+      </c>
+      <c r="V3">
+        <v>34.785685680975689</v>
+      </c>
+      <c r="W3">
+        <v>24.319433635273697</v>
+      </c>
+      <c r="X3">
+        <v>13.329567883055404</v>
+      </c>
+      <c r="Y3">
+        <v>15.402234839612106</v>
+      </c>
+      <c r="Z3">
+        <v>27.113429114141809</v>
+      </c>
+      <c r="AA3">
+        <v>40.222516301698477</v>
+      </c>
+      <c r="AB3">
+        <v>27.918210905709429</v>
+      </c>
+      <c r="AC3">
+        <v>39.299023978788085</v>
+      </c>
+      <c r="AD3">
+        <v>46.618720038044643</v>
+      </c>
+      <c r="AE3">
+        <v>33.607977243446783</v>
+      </c>
+      <c r="AF3">
+        <v>34.568514515566164</v>
+      </c>
+      <c r="AG3">
+        <v>27.762212690028832</v>
+      </c>
+      <c r="AH3">
+        <v>31.010349493258559</v>
+      </c>
+      <c r="AI3">
+        <v>38.331336695695654</v>
+      </c>
+      <c r="AJ3">
+        <v>44.175013852292295</v>
+      </c>
+      <c r="AK3">
+        <v>37.135969007805386</v>
+      </c>
+      <c r="AL3">
+        <v>39.732850396021149</v>
+      </c>
+      <c r="AM3">
         <v>43.009426650320847</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>19.578343119659678</v>
       </c>
-      <c r="F3">
-        <v>6.7285636081204814</v>
-      </c>
-      <c r="G3">
-        <v>28.680888391224045</v>
-      </c>
-      <c r="H3">
-        <v>28.78301895359516</v>
-      </c>
-      <c r="I3">
-        <v>27.403900802884891</v>
-      </c>
-      <c r="J3">
-        <v>35.890171872163421</v>
-      </c>
-      <c r="K3">
-        <v>2.3986068073680826</v>
-      </c>
-      <c r="L3">
-        <v>36.776502785674268</v>
-      </c>
-      <c r="M3">
-        <v>29.616870447018073</v>
-      </c>
-      <c r="N3">
-        <v>-19.535092440028279</v>
-      </c>
-      <c r="O3">
-        <v>13.102229759887621</v>
-      </c>
-      <c r="P3">
-        <v>65.387336955562432</v>
-      </c>
-      <c r="Q3">
-        <v>26.246254386820056</v>
-      </c>
-      <c r="R3">
-        <v>22.446540263380371</v>
-      </c>
-      <c r="S3">
-        <v>16.587720941354291</v>
-      </c>
-      <c r="T3">
-        <v>20.223135904825426</v>
-      </c>
-      <c r="U3">
-        <v>29.488131398661835</v>
-      </c>
-      <c r="V3">
-        <v>34.785685705886692</v>
-      </c>
-      <c r="W3">
-        <v>24.319433857175625</v>
-      </c>
-      <c r="X3">
-        <v>13.329567909144544</v>
-      </c>
-      <c r="Y3">
-        <v>15.402234887836499</v>
-      </c>
-      <c r="Z3">
-        <v>27.113429146735257</v>
-      </c>
-      <c r="AA3">
-        <v>40.22251630780994</v>
-      </c>
-      <c r="AB3">
-        <v>27.918210880983054</v>
-      </c>
-      <c r="AC3">
-        <v>39.299024013613717</v>
-      </c>
-      <c r="AD3">
-        <v>46.618720065696976</v>
-      </c>
-      <c r="AE3">
-        <v>33.607977213786398</v>
-      </c>
-      <c r="AF3">
-        <v>34.568514529066135</v>
-      </c>
-      <c r="AG3">
-        <v>27.762212726008897</v>
-      </c>
-      <c r="AH3">
-        <v>31.010349493810054</v>
-      </c>
-      <c r="AI3">
-        <v>38.331336750876062</v>
-      </c>
-      <c r="AJ3">
-        <v>44.175013877604442</v>
-      </c>
-      <c r="AK3">
-        <v>37.135969046849482</v>
-      </c>
-      <c r="AL3">
-        <v>39.73285046232229</v>
-      </c>
-      <c r="AM3">
-        <v>43.009426740249808</v>
-      </c>
-      <c r="AN3">
-        <v>19.578343165317222</v>
-      </c>
       <c r="AO3">
-        <v>19.699896138965812</v>
+        <v>19.699896095969819</v>
       </c>
       <c r="AP3">
-        <v>38.777695071217408</v>
+        <v>38.777695054512037</v>
       </c>
       <c r="AQ3">
-        <v>33.338696188127187</v>
+        <v>33.33869612715057</v>
       </c>
       <c r="AR3">
-        <v>38.76802572710119</v>
+        <v>38.768025703562557</v>
       </c>
       <c r="AS3">
-        <v>31.327747597341954</v>
+        <v>31.327747580726566</v>
       </c>
       <c r="AT3">
-        <v>27.799182671986586</v>
+        <v>27.799182626041301</v>
       </c>
       <c r="AU3">
-        <v>38.379098144855789</v>
+        <v>38.379098120567448</v>
       </c>
       <c r="AV3">
-        <v>36.11022833405724</v>
+        <v>36.110228225845276</v>
       </c>
       <c r="AW3">
-        <v>37.019664683765427</v>
+        <v>37.019664653831967</v>
       </c>
       <c r="AX3">
-        <v>66.21406862677</v>
+        <v>66.214068623333475</v>
       </c>
       <c r="AY3">
-        <v>47.03915621623355</v>
+        <v>47.039156178860253</v>
       </c>
     </row>
   </sheetData>
